--- a/dataExcel/【AK-47（StatTrak™） _ 可燃冰 (战痕累累)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【AK-47（StatTrak™） _ 可燃冰 (战痕累累)】悠悠有品近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,25 +431,25 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 12:45:14</v>
+        <v>2023-09-19 03:04:37</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>81.8</v>
       </c>
       <c r="C8">
-        <v>103.67</v>
+        <v>97.5</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="F8">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <v>73</v>
@@ -460,22 +460,22 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 16:26:35</v>
+        <v>2023-09-19 06:43:02</v>
       </c>
       <c r="B9">
         <v>81.8</v>
       </c>
       <c r="C9">
-        <v>103.67</v>
+        <v>97.5</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="F9">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G9">
         <v>20</v>
@@ -489,22 +489,22 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-16 20:11:46</v>
+        <v>2023-09-19 10:24:22</v>
       </c>
       <c r="B10">
-        <v>78.69</v>
+        <v>80</v>
       </c>
       <c r="C10">
-        <v>103.67</v>
+        <v>97.5</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="F10">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G10">
         <v>20</v>
@@ -518,22 +518,22 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-16 23:47:26</v>
+        <v>2023-09-19 14:01:11</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11">
-        <v>103.67</v>
+        <v>97.5</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E11">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -547,22 +547,22 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 03:25:52</v>
+        <v>2023-09-19 17:43:28</v>
       </c>
       <c r="B12">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12">
-        <v>103.67</v>
+        <v>97.5</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="F12">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G12">
         <v>20</v>
@@ -576,25 +576,25 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 07:04:35</v>
+        <v>2023-09-19 21:23:56</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C13">
-        <v>103.67</v>
+        <v>97.5</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="F13">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13">
         <v>73</v>
@@ -605,25 +605,25 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 10:38:29</v>
+        <v>2023-09-20 00:59:44</v>
       </c>
       <c r="B14">
         <v>78</v>
       </c>
       <c r="C14">
-        <v>103.67</v>
+        <v>97.5</v>
       </c>
       <c r="D14">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E14">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="F14">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14">
         <v>73</v>
@@ -634,25 +634,25 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-17 14:17:15</v>
+        <v>2023-09-20 04:37:25</v>
       </c>
       <c r="B15">
         <v>78</v>
       </c>
       <c r="C15">
-        <v>103.67</v>
+        <v>99.45</v>
       </c>
       <c r="D15">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E15">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="F15">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G15">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15">
         <v>73</v>
@@ -663,25 +663,25 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-17 17:57:54</v>
+        <v>2023-09-20 08:16:53</v>
       </c>
       <c r="B16">
         <v>78</v>
       </c>
       <c r="C16">
-        <v>103.67</v>
+        <v>99.45</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="F16">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="G16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H16">
         <v>73</v>
@@ -692,22 +692,22 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-17 21:39:00</v>
+        <v>2023-09-20 11:55:02</v>
       </c>
       <c r="B17">
-        <v>78.69</v>
+        <v>78</v>
       </c>
       <c r="C17">
-        <v>103.67</v>
+        <v>99.45</v>
       </c>
       <c r="D17">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E17">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="F17">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="G17">
         <v>20</v>
@@ -721,25 +721,25 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 01:21:47</v>
+        <v>2023-09-20 15:36:22</v>
       </c>
       <c r="B18">
-        <v>78.69</v>
+        <v>80</v>
       </c>
       <c r="C18">
-        <v>103.67</v>
+        <v>99.45</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E18">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="F18">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18">
         <v>73</v>
@@ -750,25 +750,25 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-18 05:04:37</v>
+        <v>2023-09-20 15:37:14</v>
       </c>
       <c r="B19">
-        <v>78.79</v>
+        <v>80</v>
       </c>
       <c r="C19">
-        <v>103.67</v>
+        <v>99.45</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F19">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H19">
         <v>73</v>
@@ -779,25 +779,25 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-18 08:46:29</v>
+        <v>2023-09-20 19:14:34</v>
       </c>
       <c r="B20">
-        <v>78.79</v>
+        <v>80</v>
       </c>
       <c r="C20">
-        <v>103.67</v>
+        <v>99.45</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F20">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H20">
         <v>73</v>
@@ -808,25 +808,25 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-18 12:21:24</v>
+        <v>2023-09-20 22:52:38</v>
       </c>
       <c r="B21">
         <v>80</v>
       </c>
       <c r="C21">
-        <v>103.67</v>
+        <v>99.45</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E21">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F21">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H21">
         <v>73</v>
@@ -837,25 +837,25 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-18 16:04:28</v>
+        <v>2023-09-21 02:30:05</v>
       </c>
       <c r="B22">
-        <v>81.8</v>
+        <v>79.98</v>
       </c>
       <c r="C22">
-        <v>103.67</v>
+        <v>90.67</v>
       </c>
       <c r="D22">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E22">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F22">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H22">
         <v>73</v>
@@ -866,25 +866,25 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-18 19:42:13</v>
+        <v>2023-09-21 06:08:20</v>
       </c>
       <c r="B23">
-        <v>81.8</v>
+        <v>79.98</v>
       </c>
       <c r="C23">
-        <v>103.67</v>
+        <v>90.67</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E23">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F23">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G23">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H23">
         <v>73</v>
@@ -895,16 +895,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-18 23:26:08</v>
+        <v>2023-09-21 09:46:28</v>
       </c>
       <c r="B24">
-        <v>81.8</v>
+        <v>79.98</v>
       </c>
       <c r="C24">
-        <v>103.67</v>
+        <v>90.67</v>
       </c>
       <c r="D24">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>0.22</v>
@@ -913,7 +913,7 @@
         <v>0.17</v>
       </c>
       <c r="G24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H24">
         <v>73</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-19 03:04:37</v>
+        <v>2023-09-21 13:27:25</v>
       </c>
       <c r="B25">
-        <v>81.8</v>
+        <v>79.98</v>
       </c>
       <c r="C25">
-        <v>97.5</v>
+        <v>90.67</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E25">
         <v>0.22</v>
@@ -942,7 +942,7 @@
         <v>0.17</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H25">
         <v>73</v>
@@ -953,16 +953,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-19 06:43:02</v>
+        <v>2023-09-21 17:05:44</v>
       </c>
       <c r="B26">
-        <v>81.8</v>
+        <v>79.98</v>
       </c>
       <c r="C26">
-        <v>97.5</v>
+        <v>90.67</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E26">
         <v>0.22</v>
@@ -971,7 +971,7 @@
         <v>0.17</v>
       </c>
       <c r="G26">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H26">
         <v>73</v>
@@ -982,25 +982,25 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-19 10:24:22</v>
+        <v>2023-09-21 20:45:05</v>
       </c>
       <c r="B27">
-        <v>80</v>
+        <v>79.98</v>
       </c>
       <c r="C27">
-        <v>97.5</v>
+        <v>90.67</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E27">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F27">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G27">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H27">
         <v>73</v>
@@ -1011,25 +1011,25 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-19 14:01:11</v>
+        <v>2023-09-22 00:25:06</v>
       </c>
       <c r="B28">
-        <v>80</v>
+        <v>79.89</v>
       </c>
       <c r="C28">
-        <v>97.5</v>
+        <v>90.67</v>
       </c>
       <c r="D28">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E28">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F28">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G28">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H28">
         <v>73</v>
@@ -1040,25 +1040,25 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-19 17:43:28</v>
+        <v>2023-09-22 04:01:25</v>
       </c>
       <c r="B29">
-        <v>80</v>
+        <v>79.89</v>
       </c>
       <c r="C29">
-        <v>97.5</v>
+        <v>89.5</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E29">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F29">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G29">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H29">
         <v>73</v>
@@ -1069,25 +1069,25 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-19 21:23:56</v>
+        <v>2023-09-22 07:39:12</v>
       </c>
       <c r="B30">
-        <v>80</v>
+        <v>79.89</v>
       </c>
       <c r="C30">
-        <v>97.5</v>
+        <v>89.5</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E30">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F30">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G30">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H30">
         <v>73</v>
@@ -1098,25 +1098,25 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-20 00:59:44</v>
+        <v>2023-09-22 11:17:46</v>
       </c>
       <c r="B31">
-        <v>78</v>
+        <v>78.69</v>
       </c>
       <c r="C31">
-        <v>97.5</v>
+        <v>89.5</v>
       </c>
       <c r="D31">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E31">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F31">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G31">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H31">
         <v>73</v>
@@ -1127,25 +1127,25 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-20 04:37:25</v>
+        <v>2023-09-22 14:51:28</v>
       </c>
       <c r="B32">
-        <v>78</v>
+        <v>78.69</v>
       </c>
       <c r="C32">
-        <v>99.45</v>
+        <v>89.5</v>
       </c>
       <c r="D32">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E32">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F32">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G32">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H32">
         <v>73</v>
@@ -1156,22 +1156,22 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-20 08:16:53</v>
+        <v>2023-09-22 18:28:57</v>
       </c>
       <c r="B33">
-        <v>78</v>
+        <v>78.59</v>
       </c>
       <c r="C33">
-        <v>99.45</v>
+        <v>89.5</v>
       </c>
       <c r="D33">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E33">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F33">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G33">
         <v>19</v>
@@ -1185,25 +1185,25 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-20 11:55:02</v>
+        <v>2023-09-22 22:07:24</v>
       </c>
       <c r="B34">
-        <v>78</v>
+        <v>78.19</v>
       </c>
       <c r="C34">
-        <v>99.45</v>
+        <v>89.5</v>
       </c>
       <c r="D34">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E34">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F34">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H34">
         <v>73</v>
@@ -1214,22 +1214,22 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-20 15:36:22</v>
+        <v>2023-09-23 01:47:50</v>
       </c>
       <c r="B35">
-        <v>80</v>
+        <v>78.48</v>
       </c>
       <c r="C35">
-        <v>99.45</v>
+        <v>89.5</v>
       </c>
       <c r="D35">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E35">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F35">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G35">
         <v>19</v>
@@ -1243,25 +1243,25 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-20 15:37:14</v>
+        <v>2023-09-23 05:29:47</v>
       </c>
       <c r="B36">
-        <v>80</v>
+        <v>78.48</v>
       </c>
       <c r="C36">
-        <v>99.45</v>
+        <v>93.67</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E36">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F36">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G36">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H36">
         <v>73</v>
@@ -1272,25 +1272,25 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-20 19:14:34</v>
+        <v>2023-09-23 09:10:01</v>
       </c>
       <c r="B37">
-        <v>80</v>
+        <v>78.48</v>
       </c>
       <c r="C37">
-        <v>99.45</v>
+        <v>93.67</v>
       </c>
       <c r="D37">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E37">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F37">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G37">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H37">
         <v>73</v>
@@ -1301,25 +1301,25 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-20 22:52:38</v>
+        <v>2023-09-23 12:49:23</v>
       </c>
       <c r="B38">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38">
-        <v>99.45</v>
+        <v>93.67</v>
       </c>
       <c r="D38">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E38">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F38">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G38">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H38">
         <v>73</v>
@@ -1330,25 +1330,25 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-21 02:30:05</v>
+        <v>2023-09-23 12:54:37</v>
       </c>
       <c r="B39">
-        <v>79.98</v>
+        <v>78</v>
       </c>
       <c r="C39">
-        <v>90.67</v>
+        <v>93.67</v>
       </c>
       <c r="D39">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E39">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F39">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G39">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H39">
         <v>73</v>
@@ -1359,25 +1359,25 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-21 06:08:20</v>
+        <v>2023-09-23 16:30:29</v>
       </c>
       <c r="B40">
-        <v>79.98</v>
+        <v>77.7</v>
       </c>
       <c r="C40">
-        <v>90.67</v>
+        <v>93.67</v>
       </c>
       <c r="D40">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E40">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F40">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G40">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H40">
         <v>73</v>
@@ -1388,51 +1388,51 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-21 09:46:28</v>
+        <v>2023-09-23 20:07:35</v>
       </c>
       <c r="B41">
-        <v>79.98</v>
+        <v>78</v>
       </c>
       <c r="C41">
-        <v>90.67</v>
+        <v>93.67</v>
       </c>
       <c r="D41">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E41">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F41">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G41">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H41">
         <v>73</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-21 13:27:25</v>
+        <v>2023-09-23 23:45:25</v>
       </c>
       <c r="B42">
-        <v>79.98</v>
+        <v>78</v>
       </c>
       <c r="C42">
-        <v>90.67</v>
+        <v>93.67</v>
       </c>
       <c r="D42">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E42">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F42">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G42">
         <v>18</v>
@@ -1441,79 +1441,79 @@
         <v>73</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-21 17:05:44</v>
+        <v>2023-09-24 03:26:16</v>
       </c>
       <c r="B43">
-        <v>79.98</v>
+        <v>78</v>
       </c>
       <c r="C43">
-        <v>90.67</v>
+        <v>91.45</v>
       </c>
       <c r="D43">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E43">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="F43">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G43">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H43">
         <v>73</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-21 20:45:05</v>
+        <v>2023-09-24 07:07:45</v>
       </c>
       <c r="B44">
-        <v>79.98</v>
+        <v>78</v>
       </c>
       <c r="C44">
-        <v>90.67</v>
+        <v>91.45</v>
       </c>
       <c r="D44">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E44">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F44">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H44">
         <v>73</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-22 00:25:06</v>
+        <v>2023-09-24 10:45:40</v>
       </c>
       <c r="B45">
-        <v>79.89</v>
+        <v>78</v>
       </c>
       <c r="C45">
-        <v>90.67</v>
+        <v>91.45</v>
       </c>
       <c r="D45">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E45">
         <v>0.23</v>
@@ -1522,27 +1522,27 @@
         <v>0.18</v>
       </c>
       <c r="G45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H45">
         <v>73</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-22 04:01:25</v>
+        <v>2023-09-24 15:54:56</v>
       </c>
       <c r="B46">
-        <v>79.89</v>
+        <v>78</v>
       </c>
       <c r="C46">
-        <v>89.5</v>
+        <v>91.45</v>
       </c>
       <c r="D46">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E46">
         <v>0.23</v>
@@ -1551,355 +1551,355 @@
         <v>0.18</v>
       </c>
       <c r="G46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H46">
         <v>73</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-22 07:39:12</v>
+        <v>2023-09-24 21:06:27</v>
       </c>
       <c r="B47">
-        <v>79.89</v>
+        <v>78</v>
       </c>
       <c r="C47">
-        <v>89.5</v>
+        <v>91.45</v>
       </c>
       <c r="D47">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E47">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F47">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H47">
         <v>73</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-22 11:17:46</v>
+        <v>2023-09-25 02:14:46</v>
       </c>
       <c r="B48">
-        <v>78.69</v>
+        <v>78</v>
       </c>
       <c r="C48">
-        <v>89.5</v>
+        <v>89.18</v>
       </c>
       <c r="D48">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E48">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F48">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H48">
         <v>73</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-22 14:51:28</v>
+        <v>2023-09-25 07:24:51</v>
       </c>
       <c r="B49">
-        <v>78.69</v>
+        <v>78</v>
       </c>
       <c r="C49">
-        <v>89.5</v>
+        <v>89.18</v>
       </c>
       <c r="D49">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E49">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F49">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G49">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H49">
         <v>73</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-22 18:28:57</v>
+        <v>2023-09-25 12:36:04</v>
       </c>
       <c r="B50">
-        <v>78.59</v>
+        <v>77.9</v>
       </c>
       <c r="C50">
-        <v>89.5</v>
+        <v>89.18</v>
       </c>
       <c r="D50">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E50">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F50">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G50">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H50">
         <v>73</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-22 22:07:24</v>
+        <v>2023-09-25 17:43:48</v>
       </c>
       <c r="B51">
-        <v>78.19</v>
+        <v>75.8</v>
       </c>
       <c r="C51">
-        <v>89.5</v>
+        <v>89.18</v>
       </c>
       <c r="D51">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E51">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F51">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G51">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H51">
         <v>73</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-23 01:47:50</v>
+        <v>2023-09-25 22:55:03</v>
       </c>
       <c r="B52">
-        <v>78.48</v>
+        <v>75.9</v>
       </c>
       <c r="C52">
-        <v>89.5</v>
+        <v>89.18</v>
       </c>
       <c r="D52">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E52">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F52">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G52">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H52">
         <v>73</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-23 05:29:47</v>
+        <v>2023-09-26 04:05:12</v>
       </c>
       <c r="B53">
-        <v>78.48</v>
+        <v>75.9</v>
       </c>
       <c r="C53">
-        <v>93.67</v>
+        <v>95.68</v>
       </c>
       <c r="D53">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E53">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F53">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H53">
         <v>73</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-23 09:10:01</v>
+        <v>2023-09-26 09:16:11</v>
       </c>
       <c r="B54">
-        <v>78.48</v>
+        <v>77.9</v>
       </c>
       <c r="C54">
-        <v>93.67</v>
+        <v>95.68</v>
       </c>
       <c r="D54">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E54">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F54">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G54">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H54">
         <v>73</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-23 12:49:23</v>
+        <v>2023-09-26 14:24:21</v>
       </c>
       <c r="B55">
-        <v>78</v>
+        <v>75.9</v>
       </c>
       <c r="C55">
-        <v>93.67</v>
+        <v>95.68</v>
       </c>
       <c r="D55">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E55">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="F55">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="G55">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H55">
         <v>73</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-23 12:54:37</v>
+        <v>2023-09-26 19:35:46</v>
       </c>
       <c r="B56">
-        <v>78</v>
+        <v>75.9</v>
       </c>
       <c r="C56">
-        <v>93.67</v>
+        <v>95.68</v>
       </c>
       <c r="D56">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E56">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="F56">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="G56">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H56">
         <v>73</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-23 16:30:29</v>
+        <v>2023-09-27 00:44:58</v>
       </c>
       <c r="B57">
-        <v>77.7</v>
+        <v>75.9</v>
       </c>
       <c r="C57">
-        <v>93.67</v>
+        <v>95.68</v>
       </c>
       <c r="D57">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E57">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F57">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G57">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H57">
         <v>73</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-23 20:07:35</v>
+        <v>2023-09-27 05:56:27</v>
       </c>
       <c r="B58">
-        <v>78</v>
+        <v>75.9</v>
       </c>
       <c r="C58">
-        <v>93.67</v>
+        <v>95.68</v>
       </c>
       <c r="D58">
         <v>40</v>
       </c>
       <c r="E58">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F58">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G58">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H58">
         <v>73</v>
@@ -1910,25 +1910,25 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-23 23:45:25</v>
+        <v>2023-09-27 11:05:43</v>
       </c>
       <c r="B59">
-        <v>78</v>
+        <v>75.9</v>
       </c>
       <c r="C59">
-        <v>93.67</v>
+        <v>95.68</v>
       </c>
       <c r="D59">
         <v>40</v>
       </c>
       <c r="E59">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F59">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G59">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H59">
         <v>73</v>
@@ -1939,16 +1939,16 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-24 03:26:16</v>
+        <v>2023-09-27 16:15:38</v>
       </c>
       <c r="B60">
-        <v>78</v>
+        <v>77.9</v>
       </c>
       <c r="C60">
-        <v>91.45</v>
+        <v>95.68</v>
       </c>
       <c r="D60">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E60">
         <v>0.26</v>
@@ -1968,16 +1968,16 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-24 07:07:45</v>
+        <v>2023-09-27 21:24:34</v>
       </c>
       <c r="B61">
-        <v>78</v>
+        <v>77.9</v>
       </c>
       <c r="C61">
-        <v>91.45</v>
+        <v>95.68</v>
       </c>
       <c r="D61">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E61">
         <v>0.26</v>
@@ -1997,25 +1997,25 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-24 10:45:40</v>
+        <v>2023-09-28 02:34:34</v>
       </c>
       <c r="B62">
-        <v>78</v>
+        <v>77.9</v>
       </c>
       <c r="C62">
-        <v>91.45</v>
+        <v>91.26</v>
       </c>
       <c r="D62">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E62">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F62">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G62">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H62">
         <v>73</v>
@@ -2026,25 +2026,25 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-24 15:54:56</v>
+        <v>2023-09-28 07:44:33</v>
       </c>
       <c r="B63">
-        <v>78</v>
+        <v>77.9</v>
       </c>
       <c r="C63">
-        <v>91.45</v>
+        <v>91.26</v>
       </c>
       <c r="D63">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E63">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="F63">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G63">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H63">
         <v>73</v>
@@ -2055,45 +2055,45 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-24 21:06:27</v>
+        <v>2023-09-28 12:55:54</v>
       </c>
       <c r="B64">
-        <v>78</v>
+        <v>77.9</v>
       </c>
       <c r="C64">
-        <v>91.45</v>
+        <v>91.26</v>
       </c>
       <c r="D64">
         <v>37</v>
       </c>
       <c r="E64">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="F64">
         <v>0.2</v>
       </c>
       <c r="G64">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H64">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I64">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-25 02:14:46</v>
+        <v>2023-09-28 18:07:16</v>
       </c>
       <c r="B65">
-        <v>78</v>
+        <v>77.8</v>
       </c>
       <c r="C65">
-        <v>89.18</v>
+        <v>91.26</v>
       </c>
       <c r="D65">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E65">
         <v>0.26</v>
@@ -2102,24 +2102,24 @@
         <v>0.2</v>
       </c>
       <c r="G65">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H65">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I65">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-25 07:24:51</v>
+        <v>2023-09-28 23:15:26</v>
       </c>
       <c r="B66">
-        <v>78</v>
+        <v>77.59</v>
       </c>
       <c r="C66">
-        <v>89.18</v>
+        <v>91.26</v>
       </c>
       <c r="D66">
         <v>37</v>
@@ -2131,27 +2131,27 @@
         <v>0.2</v>
       </c>
       <c r="G66">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H66">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-25 12:36:04</v>
+        <v>2023-09-29 04:25:12</v>
       </c>
       <c r="B67">
-        <v>77.9</v>
+        <v>77.7</v>
       </c>
       <c r="C67">
-        <v>89.18</v>
+        <v>97.24</v>
       </c>
       <c r="D67">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E67">
         <v>0.26</v>
@@ -2160,27 +2160,27 @@
         <v>0.2</v>
       </c>
       <c r="G67">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H67">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-25 17:43:48</v>
+        <v>2023-09-29 09:36:06</v>
       </c>
       <c r="B68">
-        <v>75.8</v>
+        <v>77.59</v>
       </c>
       <c r="C68">
-        <v>89.18</v>
+        <v>97.24</v>
       </c>
       <c r="D68">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E68">
         <v>0.26</v>
@@ -2189,27 +2189,27 @@
         <v>0.2</v>
       </c>
       <c r="G68">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H68">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-25 22:55:03</v>
+        <v>2023-09-29 14:47:05</v>
       </c>
       <c r="B69">
-        <v>75.9</v>
+        <v>77</v>
       </c>
       <c r="C69">
-        <v>89.18</v>
+        <v>97.24</v>
       </c>
       <c r="D69">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E69">
         <v>0.26</v>
@@ -2221,326 +2221,290 @@
         <v>17</v>
       </c>
       <c r="H69">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-26 04:05:12</v>
+        <v>2023-09-29 19:56:32</v>
       </c>
       <c r="B70">
-        <v>75.9</v>
+        <v>76.8</v>
       </c>
       <c r="C70">
-        <v>95.68</v>
+        <v>97.24</v>
       </c>
       <c r="D70">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E70">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="F70">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="G70">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H70">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I70">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-26 09:16:11</v>
+        <v>2023-09-30 01:05:44</v>
       </c>
       <c r="B71">
-        <v>77.9</v>
+        <v>75</v>
       </c>
       <c r="C71">
-        <v>95.68</v>
+        <v>97.24</v>
       </c>
       <c r="D71">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E71">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="F71">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="G71">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H71">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-26 14:24:21</v>
+        <v>2023-09-30 06:10:50</v>
       </c>
       <c r="B72">
-        <v>75.9</v>
+        <v>74</v>
       </c>
       <c r="C72">
-        <v>95.68</v>
+        <v>92.17</v>
       </c>
       <c r="D72">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E72">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F72">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="G72">
-        <v>17</v>
-      </c>
-      <c r="H72">
-        <v>73</v>
-      </c>
-      <c r="I72">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-26 19:35:46</v>
+        <v>2023-09-30 11:20:50</v>
       </c>
       <c r="B73">
-        <v>75.9</v>
+        <v>73</v>
       </c>
       <c r="C73">
-        <v>95.68</v>
+        <v>92.17</v>
       </c>
       <c r="D73">
         <v>40</v>
       </c>
       <c r="E73">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F73">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="G73">
-        <v>17</v>
-      </c>
-      <c r="H73">
-        <v>73</v>
-      </c>
-      <c r="I73">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-27 00:44:58</v>
+        <v>2023-09-30 16:31:39</v>
       </c>
       <c r="B74">
-        <v>75.9</v>
+        <v>69.9</v>
       </c>
       <c r="C74">
-        <v>95.68</v>
+        <v>92.17</v>
       </c>
       <c r="D74">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E74">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="F74">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="G74">
-        <v>16</v>
-      </c>
-      <c r="H74">
-        <v>73</v>
-      </c>
-      <c r="I74">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-27 05:56:27</v>
+        <v>2023-09-30 21:40:57</v>
       </c>
       <c r="B75">
-        <v>75.9</v>
+        <v>69.9</v>
       </c>
       <c r="C75">
-        <v>95.68</v>
+        <v>92.17</v>
       </c>
       <c r="D75">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E75">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="F75">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="G75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H75">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-27 11:05:43</v>
+        <v>2023-10-01 02:50:57</v>
       </c>
       <c r="B76">
-        <v>75.9</v>
+        <v>69.9</v>
       </c>
       <c r="C76">
-        <v>95.68</v>
+        <v>108.42</v>
       </c>
       <c r="D76">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E76">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="F76">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="G76">
-        <v>16</v>
-      </c>
-      <c r="H76">
-        <v>73</v>
-      </c>
-      <c r="I76">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-27 16:15:38</v>
+        <v>2023-10-01 08:01:47</v>
       </c>
       <c r="B77">
-        <v>77.9</v>
+        <v>69.8</v>
       </c>
       <c r="C77">
-        <v>95.68</v>
+        <v>108.42</v>
       </c>
       <c r="D77">
         <v>37</v>
       </c>
       <c r="E77">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="F77">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="G77">
-        <v>16</v>
-      </c>
-      <c r="H77">
-        <v>73</v>
-      </c>
-      <c r="I77">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-27 21:24:34</v>
+        <v>2023-10-01 13:11:04</v>
       </c>
       <c r="B78">
-        <v>77.9</v>
+        <v>69.7</v>
       </c>
       <c r="C78">
-        <v>95.68</v>
+        <v>108.42</v>
       </c>
       <c r="D78">
         <v>37</v>
       </c>
       <c r="E78">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="F78">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="G78">
-        <v>16</v>
-      </c>
-      <c r="H78">
-        <v>73</v>
-      </c>
-      <c r="I78">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-28 02:34:34</v>
+        <v>2023-10-01 18:21:04</v>
       </c>
       <c r="B79">
-        <v>77.9</v>
+        <v>69.8</v>
       </c>
       <c r="C79">
-        <v>91.26</v>
+        <v>108.42</v>
       </c>
       <c r="D79">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E79">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="F79">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="G79">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H79">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-28 07:44:33</v>
+        <v>2023-10-01 23:31:04</v>
       </c>
       <c r="B80">
-        <v>77.9</v>
+        <v>69.9</v>
       </c>
       <c r="C80">
-        <v>91.26</v>
+        <v>108.42</v>
       </c>
       <c r="D80">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E80">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="F80">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="G80">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H80">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I80">
         <v>4</v>
@@ -2548,115 +2512,115 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-28 12:55:54</v>
+        <v>2023-10-02 04:41:03</v>
       </c>
       <c r="B81">
-        <v>77.9</v>
+        <v>69.9</v>
       </c>
       <c r="C81">
-        <v>91.26</v>
+        <v>108.42</v>
       </c>
       <c r="D81">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E81">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="F81">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="G81">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H81">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-28 18:07:16</v>
+        <v>2023-10-02 09:51:03</v>
       </c>
       <c r="B82">
-        <v>77.8</v>
+        <v>69.9</v>
       </c>
       <c r="C82">
-        <v>91.26</v>
+        <v>108.42</v>
       </c>
       <c r="D82">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E82">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="F82">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="G82">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H82">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-28 23:15:26</v>
+        <v>2023-10-02 15:01:33</v>
       </c>
       <c r="B83">
-        <v>77.59</v>
+        <v>69.8</v>
       </c>
       <c r="C83">
-        <v>91.26</v>
+        <v>108.42</v>
       </c>
       <c r="D83">
         <v>37</v>
       </c>
       <c r="E83">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="F83">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="G83">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H83">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-29 04:25:12</v>
+        <v>2023-10-02 20:11:25</v>
       </c>
       <c r="B84">
-        <v>77.7</v>
+        <v>69.8</v>
       </c>
       <c r="C84">
-        <v>97.24</v>
+        <v>108.42</v>
       </c>
       <c r="D84">
         <v>36</v>
       </c>
       <c r="E84">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="F84">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="G84">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H84">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I84">
         <v>3</v>
@@ -2664,28 +2628,28 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-09-29 09:36:06</v>
+        <v>2023-10-03 01:22:19</v>
       </c>
       <c r="B85">
-        <v>77.59</v>
+        <v>69.9</v>
       </c>
       <c r="C85">
-        <v>97.24</v>
+        <v>108.42</v>
       </c>
       <c r="D85">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E85">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="F85">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="G85">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H85">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I85">
         <v>3</v>
@@ -2693,149 +2657,161 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-09-29 14:47:05</v>
+        <v>2023-10-03 06:31:16</v>
       </c>
       <c r="B86">
-        <v>77</v>
+        <v>69.9</v>
       </c>
       <c r="C86">
-        <v>97.24</v>
+        <v>99.71</v>
       </c>
       <c r="D86">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E86">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="F86">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="G86">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H86">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-09-29 19:56:32</v>
+        <v>2023-10-03 11:41:23</v>
       </c>
       <c r="B87">
-        <v>76.8</v>
+        <v>69.8</v>
       </c>
       <c r="C87">
-        <v>97.24</v>
+        <v>99.71</v>
       </c>
       <c r="D87">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E87">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="F87">
         <v>0.23</v>
       </c>
       <c r="G87">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H87">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-09-30 01:05:44</v>
+        <v>2023-10-03 16:53:26</v>
       </c>
       <c r="B88">
-        <v>75</v>
+        <v>76.66</v>
       </c>
       <c r="C88">
-        <v>97.24</v>
+        <v>99.71</v>
       </c>
       <c r="D88">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E88">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="F88">
         <v>0.23</v>
       </c>
       <c r="G88">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H88">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-09-30 06:10:50</v>
+        <v>2023-10-03 22:01:34</v>
       </c>
       <c r="B89">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C89">
-        <v>92.17</v>
+        <v>99.71</v>
       </c>
       <c r="D89">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E89">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="F89">
         <v>0.23</v>
       </c>
       <c r="G89">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H89">
+        <v>64</v>
+      </c>
+      <c r="I89">
+        <v>4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-09-30 11:20:50</v>
+        <v>2023-10-04 03:11:34</v>
       </c>
       <c r="B90">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C90">
-        <v>92.17</v>
+        <v>102.57</v>
       </c>
       <c r="D90">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E90">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="F90">
         <v>0.23</v>
       </c>
       <c r="G90">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H90">
+        <v>64</v>
+      </c>
+      <c r="I90">
+        <v>4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-09-30 16:31:39</v>
+        <v>2023-10-04 08:21:34</v>
       </c>
       <c r="B91">
-        <v>69.9</v>
+        <v>76</v>
       </c>
       <c r="C91">
-        <v>92.17</v>
+        <v>102.57</v>
       </c>
       <c r="D91">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E91">
         <v>0.32</v>
@@ -2844,21 +2820,27 @@
         <v>0.23</v>
       </c>
       <c r="G91">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H91">
+        <v>65</v>
+      </c>
+      <c r="I91">
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-09-30 21:40:57</v>
+        <v>2023-10-04 13:31:33</v>
       </c>
       <c r="B92">
-        <v>69.9</v>
+        <v>76</v>
       </c>
       <c r="C92">
-        <v>92.17</v>
+        <v>102.57</v>
       </c>
       <c r="D92">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E92">
         <v>0.32</v>
@@ -2870,47 +2852,53 @@
         <v>15</v>
       </c>
       <c r="H92">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-01 02:50:57</v>
+        <v>2023-10-04 18:41:33</v>
       </c>
       <c r="B93">
-        <v>69.9</v>
+        <v>76</v>
       </c>
       <c r="C93">
-        <v>108.42</v>
+        <v>102.57</v>
       </c>
       <c r="D93">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E93">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="F93">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="G93">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H93">
+        <v>66</v>
+      </c>
+      <c r="I93">
+        <v>4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-01 08:01:47</v>
+        <v>2023-10-04 23:53:17</v>
       </c>
       <c r="B94">
-        <v>69.8</v>
+        <v>76</v>
       </c>
       <c r="C94">
-        <v>108.42</v>
+        <v>102.57</v>
       </c>
       <c r="D94">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E94">
         <v>0.32</v>
@@ -2921,19 +2909,25 @@
       <c r="G94">
         <v>15</v>
       </c>
+      <c r="H94">
+        <v>67</v>
+      </c>
+      <c r="I94">
+        <v>4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-01 13:11:04</v>
+        <v>2023-10-05 05:04:01</v>
       </c>
       <c r="B95">
-        <v>69.7</v>
+        <v>75.98</v>
       </c>
       <c r="C95">
-        <v>108.42</v>
+        <v>106.21</v>
       </c>
       <c r="D95">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E95">
         <v>0.32</v>
@@ -2942,24 +2936,30 @@
         <v>0.23</v>
       </c>
       <c r="G95">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="H95">
+        <v>67</v>
+      </c>
+      <c r="I95">
+        <v>4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-01 18:21:04</v>
+        <v>2023-10-05 10:12:10</v>
       </c>
       <c r="B96">
-        <v>69.8</v>
+        <v>75.98</v>
       </c>
       <c r="C96">
-        <v>108.42</v>
+        <v>106.21</v>
       </c>
       <c r="D96">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E96">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="F96">
         <v>0.23</v>
@@ -2968,27 +2968,27 @@
         <v>14</v>
       </c>
       <c r="H96">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-01 23:31:04</v>
+        <v>2023-10-05 15:21:56</v>
       </c>
       <c r="B97">
-        <v>69.9</v>
+        <v>75.98</v>
       </c>
       <c r="C97">
-        <v>108.42</v>
+        <v>106.21</v>
       </c>
       <c r="D97">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E97">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="F97">
         <v>0.23</v>
@@ -2997,7 +2997,7 @@
         <v>14</v>
       </c>
       <c r="H97">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I97">
         <v>4</v>
@@ -3005,13 +3005,13 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-02 04:41:03</v>
+        <v>2023-10-05 20:33:27</v>
       </c>
       <c r="B98">
-        <v>69.9</v>
+        <v>74.89</v>
       </c>
       <c r="C98">
-        <v>108.42</v>
+        <v>106.21</v>
       </c>
       <c r="D98">
         <v>34</v>
@@ -3023,10 +3023,10 @@
         <v>0.23</v>
       </c>
       <c r="G98">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I98">
         <v>4</v>
@@ -3034,19 +3034,19 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-02 09:51:03</v>
+        <v>2023-10-06 01:42:40</v>
       </c>
       <c r="B99">
-        <v>69.9</v>
+        <v>74.89</v>
       </c>
       <c r="C99">
-        <v>108.42</v>
+        <v>106.21</v>
       </c>
       <c r="D99">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E99">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="F99">
         <v>0.23</v>
@@ -3055,24 +3055,24 @@
         <v>14</v>
       </c>
       <c r="H99">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I99">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-02 15:01:33</v>
+        <v>2023-10-06 06:52:01</v>
       </c>
       <c r="B100">
-        <v>69.8</v>
+        <v>74.89</v>
       </c>
       <c r="C100">
-        <v>108.42</v>
+        <v>106.21</v>
       </c>
       <c r="D100">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E100">
         <v>0.32</v>
@@ -3081,27 +3081,27 @@
         <v>0.23</v>
       </c>
       <c r="G100">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-02 20:11:25</v>
+        <v>2023-10-06 12:02:54</v>
       </c>
       <c r="B101">
-        <v>69.8</v>
+        <v>74.89</v>
       </c>
       <c r="C101">
-        <v>108.42</v>
+        <v>106.21</v>
       </c>
       <c r="D101">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E101">
         <v>0.32</v>
@@ -3110,27 +3110,27 @@
         <v>0.23</v>
       </c>
       <c r="G101">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H101">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-03 01:22:19</v>
+        <v>2023-10-06 17:12:09</v>
       </c>
       <c r="B102">
-        <v>69.9</v>
+        <v>74.89</v>
       </c>
       <c r="C102">
-        <v>108.42</v>
+        <v>106.21</v>
       </c>
       <c r="D102">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E102">
         <v>0.32</v>
@@ -3139,24 +3139,24 @@
         <v>0.23</v>
       </c>
       <c r="G102">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H102">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-03 06:31:16</v>
+        <v>2023-10-06 22:22:09</v>
       </c>
       <c r="B103">
-        <v>69.9</v>
+        <v>74.89</v>
       </c>
       <c r="C103">
-        <v>99.71</v>
+        <v>106.21</v>
       </c>
       <c r="D103">
         <v>33</v>
@@ -3168,10 +3168,10 @@
         <v>0.23</v>
       </c>
       <c r="G103">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H103">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I103">
         <v>4</v>
@@ -3179,28 +3179,28 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-03 11:41:23</v>
+        <v>2023-10-07 03:32:09</v>
       </c>
       <c r="B104">
-        <v>69.8</v>
+        <v>74.89</v>
       </c>
       <c r="C104">
-        <v>99.71</v>
+        <v>91.52</v>
       </c>
       <c r="D104">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E104">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="F104">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="G104">
         <v>15</v>
       </c>
       <c r="H104">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I104">
         <v>4</v>
@@ -3208,28 +3208,28 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-03 16:53:26</v>
+        <v>2023-10-07 08:42:09</v>
       </c>
       <c r="B105">
-        <v>76.66</v>
+        <v>74.89</v>
       </c>
       <c r="C105">
-        <v>99.71</v>
+        <v>91.52</v>
       </c>
       <c r="D105">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E105">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="F105">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="G105">
         <v>15</v>
       </c>
       <c r="H105">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I105">
         <v>4</v>
@@ -3237,28 +3237,28 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-03 22:01:34</v>
+        <v>2023-10-07 13:52:09</v>
       </c>
       <c r="B106">
-        <v>76</v>
+        <v>74.89</v>
       </c>
       <c r="C106">
-        <v>99.71</v>
+        <v>91.52</v>
       </c>
       <c r="D106">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E106">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="F106">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="G106">
         <v>15</v>
       </c>
       <c r="H106">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I106">
         <v>4</v>
@@ -3266,45 +3266,45 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-04 03:11:34</v>
+        <v>2023-10-07 19:02:09</v>
       </c>
       <c r="B107">
-        <v>76</v>
+        <v>74.89</v>
       </c>
       <c r="C107">
-        <v>102.57</v>
+        <v>91.52</v>
       </c>
       <c r="D107">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E107">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="F107">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="G107">
         <v>15</v>
       </c>
       <c r="H107">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I107">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-04 08:21:34</v>
+        <v>2023-10-08 00:12:17</v>
       </c>
       <c r="B108">
-        <v>76</v>
+        <v>74.89</v>
       </c>
       <c r="C108">
-        <v>102.57</v>
+        <v>91.52</v>
       </c>
       <c r="D108">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E108">
         <v>0.32</v>
@@ -3313,27 +3313,27 @@
         <v>0.23</v>
       </c>
       <c r="G108">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H108">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I108">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-04 13:31:33</v>
+        <v>2023-10-08 05:22:16</v>
       </c>
       <c r="B109">
-        <v>76</v>
+        <v>74.89</v>
       </c>
       <c r="C109">
-        <v>102.57</v>
+        <v>97.76</v>
       </c>
       <c r="D109">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E109">
         <v>0.32</v>
@@ -3342,27 +3342,27 @@
         <v>0.23</v>
       </c>
       <c r="G109">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H109">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I109">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-04 18:41:33</v>
+        <v>2023-10-08 10:32:27</v>
       </c>
       <c r="B110">
-        <v>76</v>
+        <v>74.89</v>
       </c>
       <c r="C110">
-        <v>102.57</v>
+        <v>97.76</v>
       </c>
       <c r="D110">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E110">
         <v>0.32</v>
@@ -3371,39 +3371,39 @@
         <v>0.23</v>
       </c>
       <c r="G110">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H110">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I110">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-04 23:53:17</v>
+        <v>2023-10-08 15:44:32</v>
       </c>
       <c r="B111">
-        <v>76</v>
+        <v>74.79</v>
       </c>
       <c r="C111">
-        <v>102.57</v>
+        <v>97.76</v>
       </c>
       <c r="D111">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E111">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="F111">
         <v>0.23</v>
       </c>
       <c r="G111">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H111">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I111">
         <v>4</v>
@@ -3411,373 +3411,373 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-05 05:04:01</v>
+        <v>2023-10-08 20:53:40</v>
       </c>
       <c r="B112">
-        <v>75.98</v>
+        <v>74.79</v>
       </c>
       <c r="C112">
-        <v>106.21</v>
+        <v>97.76</v>
       </c>
       <c r="D112">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E112">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="F112">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="G112">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H112">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I112">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-05 10:12:10</v>
+        <v>2023-10-09 02:03:02</v>
       </c>
       <c r="B113">
-        <v>75.98</v>
+        <v>74.89</v>
       </c>
       <c r="C113">
-        <v>106.21</v>
+        <v>97.76</v>
       </c>
       <c r="D113">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E113">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="F113">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="G113">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H113">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I113">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-05 15:21:56</v>
+        <v>2023-10-09 07:12:48</v>
       </c>
       <c r="B114">
-        <v>75.98</v>
+        <v>74.89</v>
       </c>
       <c r="C114">
-        <v>106.21</v>
+        <v>107.9</v>
       </c>
       <c r="D114">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E114">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="F114">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="G114">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H114">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I114">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-05 20:33:27</v>
+        <v>2023-10-09 12:22:46</v>
       </c>
       <c r="B115">
         <v>74.89</v>
       </c>
       <c r="C115">
-        <v>106.21</v>
+        <v>107.9</v>
       </c>
       <c r="D115">
         <v>34</v>
       </c>
       <c r="E115">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="F115">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="G115">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H115">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I115">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-06 01:42:40</v>
+        <v>2023-10-09 17:32:47</v>
       </c>
       <c r="B116">
         <v>74.89</v>
       </c>
       <c r="C116">
-        <v>106.21</v>
+        <v>107.9</v>
       </c>
       <c r="D116">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E116">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="F116">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="G116">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H116">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-06 06:52:01</v>
+        <v>2023-10-09 22:42:46</v>
       </c>
       <c r="B117">
         <v>74.89</v>
       </c>
       <c r="C117">
-        <v>106.21</v>
+        <v>107.9</v>
       </c>
       <c r="D117">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E117">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="F117">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="G117">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H117">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-06 12:02:54</v>
+        <v>2023-10-10 03:53:13</v>
       </c>
       <c r="B118">
         <v>74.89</v>
       </c>
       <c r="C118">
-        <v>106.21</v>
+        <v>110.43</v>
       </c>
       <c r="D118">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E118">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="F118">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="G118">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H118">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-06 17:12:09</v>
+        <v>2023-10-10 09:03:06</v>
       </c>
       <c r="B119">
         <v>74.89</v>
       </c>
       <c r="C119">
-        <v>106.21</v>
+        <v>110.43</v>
       </c>
       <c r="D119">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E119">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="F119">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="G119">
         <v>14</v>
       </c>
       <c r="H119">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I119">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-06 22:22:09</v>
+        <v>2023-10-10 14:13:02</v>
       </c>
       <c r="B120">
-        <v>74.89</v>
+        <v>74.8</v>
       </c>
       <c r="C120">
-        <v>106.21</v>
+        <v>110.43</v>
       </c>
       <c r="D120">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E120">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="F120">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="G120">
         <v>14</v>
       </c>
       <c r="H120">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-07 03:32:09</v>
+        <v>2023-10-10 19:23:02</v>
       </c>
       <c r="B121">
-        <v>74.89</v>
+        <v>74.79</v>
       </c>
       <c r="C121">
-        <v>91.52</v>
+        <v>110.43</v>
       </c>
       <c r="D121">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E121">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
       <c r="F121">
-        <v>0.08</v>
+        <v>0.26</v>
       </c>
       <c r="G121">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H121">
         <v>70</v>
       </c>
       <c r="I121">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-07 08:42:09</v>
+        <v>2023-10-11 00:26:40</v>
       </c>
       <c r="B122">
-        <v>74.89</v>
+        <v>74.79</v>
       </c>
       <c r="C122">
-        <v>91.52</v>
+        <v>110.43</v>
       </c>
       <c r="D122">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E122">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
       <c r="F122">
-        <v>0.08</v>
+        <v>0.26</v>
       </c>
       <c r="G122">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H122">
         <v>70</v>
       </c>
       <c r="I122">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-07 13:52:09</v>
+        <v>2023-10-11 05:37:22</v>
       </c>
       <c r="B123">
-        <v>74.89</v>
+        <v>74.79</v>
       </c>
       <c r="C123">
-        <v>91.52</v>
+        <v>108.49</v>
       </c>
       <c r="D123">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E123">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
       <c r="F123">
-        <v>0.08</v>
+        <v>0.26</v>
       </c>
       <c r="G123">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H123">
         <v>70</v>
       </c>
       <c r="I123">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-07 19:02:09</v>
+        <v>2023-10-11 10:46:48</v>
       </c>
       <c r="B124">
-        <v>74.89</v>
+        <v>74.78</v>
       </c>
       <c r="C124">
-        <v>91.52</v>
+        <v>108.49</v>
       </c>
       <c r="D124">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E124">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
       <c r="F124">
-        <v>0.08</v>
+        <v>0.26</v>
       </c>
       <c r="G124">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H124">
         <v>70</v>
@@ -3788,22 +3788,22 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-08 00:12:17</v>
+        <v>2023-10-11 15:57:32</v>
       </c>
       <c r="B125">
-        <v>74.89</v>
+        <v>74.78</v>
       </c>
       <c r="C125">
-        <v>91.52</v>
+        <v>108.49</v>
       </c>
       <c r="D125">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E125">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="F125">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="G125">
         <v>14</v>
@@ -3817,22 +3817,22 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-08 05:22:16</v>
+        <v>2023-10-11 21:09:09</v>
       </c>
       <c r="B126">
-        <v>74.89</v>
+        <v>74.33</v>
       </c>
       <c r="C126">
-        <v>97.76</v>
+        <v>108.49</v>
       </c>
       <c r="D126">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E126">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="F126">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="G126">
         <v>14</v>
@@ -3841,59 +3841,59 @@
         <v>70</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-08 10:32:27</v>
+        <v>2023-10-12 02:17:00</v>
       </c>
       <c r="B127">
-        <v>74.89</v>
+        <v>74.33</v>
       </c>
       <c r="C127">
-        <v>97.76</v>
+        <v>109.92</v>
       </c>
       <c r="D127">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E127">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="F127">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="G127">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127">
         <v>70</v>
       </c>
       <c r="I127">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-08 15:44:32</v>
+        <v>2023-10-12 07:27:00</v>
       </c>
       <c r="B128">
-        <v>74.79</v>
+        <v>74.33</v>
       </c>
       <c r="C128">
-        <v>97.76</v>
+        <v>109.92</v>
       </c>
       <c r="D128">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E128">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="F128">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="G128">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128">
         <v>70</v>
@@ -3904,141 +3904,141 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-08 20:53:40</v>
+        <v>2023-10-12 12:36:59</v>
       </c>
       <c r="B129">
-        <v>74.79</v>
+        <v>74.31</v>
       </c>
       <c r="C129">
-        <v>97.76</v>
+        <v>109.92</v>
       </c>
       <c r="D129">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E129">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="F129">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="G129">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H129">
         <v>70</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-09 02:03:02</v>
+        <v>2023-10-12 17:46:59</v>
       </c>
       <c r="B130">
-        <v>74.89</v>
+        <v>74.66</v>
       </c>
       <c r="C130">
-        <v>97.76</v>
+        <v>109.92</v>
       </c>
       <c r="D130">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E130">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="F130">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="G130">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H130">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-09 07:12:48</v>
+        <v>2023-10-12 22:56:58</v>
       </c>
       <c r="B131">
-        <v>74.89</v>
+        <v>74.66</v>
       </c>
       <c r="C131">
-        <v>107.9</v>
+        <v>109.92</v>
       </c>
       <c r="D131">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E131">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="F131">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="G131">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H131">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-09 12:22:46</v>
+        <v>2023-10-13 04:08:14</v>
       </c>
       <c r="B132">
-        <v>74.89</v>
+        <v>74.79</v>
       </c>
       <c r="C132">
-        <v>107.9</v>
+        <v>109.92</v>
       </c>
       <c r="D132">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E132">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="F132">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="G132">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H132">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-09 17:32:47</v>
+        <v>2023-10-13 09:17:06</v>
       </c>
       <c r="B133">
-        <v>74.89</v>
+        <v>74.8</v>
       </c>
       <c r="C133">
-        <v>107.9</v>
+        <v>109.92</v>
       </c>
       <c r="D133">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E133">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="F133">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="G133">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H133">
         <v>70</v>
@@ -4049,164 +4049,164 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-09 22:42:46</v>
+        <v>2023-10-13 14:27:05</v>
       </c>
       <c r="B134">
-        <v>74.89</v>
+        <v>74.8</v>
       </c>
       <c r="C134">
-        <v>107.9</v>
+        <v>109.92</v>
       </c>
       <c r="D134">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E134">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="F134">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="G134">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H134">
         <v>70</v>
       </c>
       <c r="I134">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-10 03:53:13</v>
+        <v>2023-10-13 19:38:44</v>
       </c>
       <c r="B135">
-        <v>74.89</v>
+        <v>74.8</v>
       </c>
       <c r="C135">
-        <v>110.43</v>
+        <v>109.92</v>
       </c>
       <c r="D135">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E135">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F135">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="G135">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H135">
         <v>70</v>
       </c>
       <c r="I135">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-10 09:03:06</v>
+        <v>2023-10-14 00:47:12</v>
       </c>
       <c r="B136">
-        <v>74.89</v>
+        <v>74.8</v>
       </c>
       <c r="C136">
-        <v>110.43</v>
+        <v>109.92</v>
       </c>
       <c r="D136">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E136">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="F136">
         <v>0.26</v>
       </c>
       <c r="G136">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H136">
         <v>70</v>
       </c>
       <c r="I136">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-10 14:13:02</v>
+        <v>2023-10-14 05:57:14</v>
       </c>
       <c r="B137">
         <v>74.8</v>
       </c>
       <c r="C137">
-        <v>110.43</v>
+        <v>109.92</v>
       </c>
       <c r="D137">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E137">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="F137">
         <v>0.26</v>
       </c>
       <c r="G137">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H137">
         <v>70</v>
       </c>
       <c r="I137">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-10 19:23:02</v>
+        <v>2023-10-14 11:10:29</v>
       </c>
       <c r="B138">
-        <v>74.79</v>
+        <v>74.8</v>
       </c>
       <c r="C138">
-        <v>110.43</v>
+        <v>109.92</v>
       </c>
       <c r="D138">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E138">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="F138">
         <v>0.26</v>
       </c>
       <c r="G138">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H138">
         <v>70</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-11 00:26:40</v>
+        <v>2023-10-14 16:17:22</v>
       </c>
       <c r="B139">
-        <v>74.79</v>
+        <v>73.9</v>
       </c>
       <c r="C139">
-        <v>110.43</v>
+        <v>109.92</v>
       </c>
       <c r="D139">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E139">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="F139">
         <v>0.26</v>
@@ -4218,62 +4218,62 @@
         <v>70</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-11 05:37:22</v>
+        <v>2023-10-14 21:27:22</v>
       </c>
       <c r="B140">
-        <v>74.79</v>
+        <v>74</v>
       </c>
       <c r="C140">
-        <v>108.49</v>
+        <v>109.92</v>
       </c>
       <c r="D140">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E140">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="F140">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="G140">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H140">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-11 10:46:48</v>
+        <v>2023-10-15 02:37:22</v>
       </c>
       <c r="B141">
-        <v>74.78</v>
+        <v>74</v>
       </c>
       <c r="C141">
-        <v>108.49</v>
+        <v>112.91</v>
       </c>
       <c r="D141">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E141">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="F141">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="G141">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H141">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I141">
         <v>3</v>
@@ -4281,28 +4281,28 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-11 15:57:32</v>
+        <v>2023-10-15 07:47:22</v>
       </c>
       <c r="B142">
-        <v>74.78</v>
+        <v>74</v>
       </c>
       <c r="C142">
-        <v>108.49</v>
+        <v>112.91</v>
       </c>
       <c r="D142">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E142">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="F142">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="G142">
         <v>14</v>
       </c>
       <c r="H142">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I142">
         <v>3</v>
@@ -4310,289 +4310,289 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-11 21:09:09</v>
+        <v>2023-10-15 12:57:24</v>
       </c>
       <c r="B143">
-        <v>74.33</v>
+        <v>74</v>
       </c>
       <c r="C143">
-        <v>108.49</v>
+        <v>112.91</v>
       </c>
       <c r="D143">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E143">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="F143">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="G143">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H143">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I143">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-12 02:17:00</v>
+        <v>2023-10-15 18:07:28</v>
       </c>
       <c r="B144">
-        <v>74.33</v>
+        <v>74</v>
       </c>
       <c r="C144">
-        <v>109.92</v>
+        <v>112.91</v>
       </c>
       <c r="D144">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E144">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="F144">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="G144">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H144">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-12 07:27:00</v>
+        <v>2023-10-15 23:17:28</v>
       </c>
       <c r="B145">
-        <v>74.33</v>
+        <v>74</v>
       </c>
       <c r="C145">
-        <v>109.92</v>
+        <v>112.91</v>
       </c>
       <c r="D145">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E145">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="F145">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="G145">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H145">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I145">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-12 12:36:59</v>
+        <v>2023-10-16 04:27:28</v>
       </c>
       <c r="B146">
-        <v>74.31</v>
+        <v>74</v>
       </c>
       <c r="C146">
-        <v>109.92</v>
+        <v>99.97</v>
       </c>
       <c r="D146">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E146">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="F146">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="G146">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H146">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I146">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-12 17:46:59</v>
+        <v>2023-10-16 09:37:28</v>
       </c>
       <c r="B147">
-        <v>74.66</v>
+        <v>74</v>
       </c>
       <c r="C147">
-        <v>109.92</v>
+        <v>99.97</v>
       </c>
       <c r="D147">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E147">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="F147">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="G147">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H147">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I147">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-12 22:56:58</v>
+        <v>2023-10-16 14:47:28</v>
       </c>
       <c r="B148">
-        <v>74.66</v>
+        <v>74</v>
       </c>
       <c r="C148">
-        <v>109.92</v>
+        <v>99.97</v>
       </c>
       <c r="D148">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E148">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="F148">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="G148">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H148">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I148">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-13 04:08:14</v>
+        <v>2023-10-16 19:57:26</v>
       </c>
       <c r="B149">
         <v>74.79</v>
       </c>
       <c r="C149">
-        <v>109.92</v>
+        <v>99.97</v>
       </c>
       <c r="D149">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E149">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="F149">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="G149">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H149">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I149">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-13 09:17:06</v>
+        <v>2023-10-17 01:07:25</v>
       </c>
       <c r="B150">
-        <v>74.8</v>
+        <v>74.79</v>
       </c>
       <c r="C150">
-        <v>109.92</v>
+        <v>99.97</v>
       </c>
       <c r="D150">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E150">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="F150">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="G150">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H150">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I150">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-13 14:27:05</v>
+        <v>2023-10-17 06:17:56</v>
       </c>
       <c r="B151">
-        <v>74.8</v>
+        <v>74.79</v>
       </c>
       <c r="C151">
-        <v>109.92</v>
+        <v>109.26</v>
       </c>
       <c r="D151">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E151">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="F151">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="G151">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H151">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I151">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-13 19:38:44</v>
+        <v>2023-10-17 11:27:33</v>
       </c>
       <c r="B152">
-        <v>74.8</v>
+        <v>74.79</v>
       </c>
       <c r="C152">
-        <v>109.92</v>
+        <v>109.26</v>
       </c>
       <c r="D152">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E152">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="F152">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="G152">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H152">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I152">
         <v>4</v>
@@ -4600,173 +4600,173 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-14 00:47:12</v>
+        <v>2023-10-17 16:37:31</v>
       </c>
       <c r="B153">
-        <v>74.8</v>
+        <v>74.79</v>
       </c>
       <c r="C153">
-        <v>109.92</v>
+        <v>109.26</v>
       </c>
       <c r="D153">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E153">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="F153">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="G153">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H153">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I153">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-14 05:57:14</v>
+        <v>2023-10-17 21:47:30</v>
       </c>
       <c r="B154">
-        <v>74.8</v>
+        <v>74.79</v>
       </c>
       <c r="C154">
-        <v>109.92</v>
+        <v>109.26</v>
       </c>
       <c r="D154">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E154">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="F154">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="G154">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H154">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I154">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-14 11:10:29</v>
+        <v>2023-10-18 02:51:50</v>
       </c>
       <c r="B155">
-        <v>74.8</v>
+        <v>74.79</v>
       </c>
       <c r="C155">
         <v>109.92</v>
       </c>
       <c r="D155">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E155">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="F155">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="G155">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H155">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I155">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-14 16:17:22</v>
+        <v>2023-10-18 08:01:49</v>
       </c>
       <c r="B156">
-        <v>73.9</v>
+        <v>74.79</v>
       </c>
       <c r="C156">
         <v>109.92</v>
       </c>
       <c r="D156">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E156">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
       <c r="F156">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="G156">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H156">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I156">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-14 21:27:22</v>
+        <v>2023-10-18 13:12:04</v>
       </c>
       <c r="B157">
-        <v>74</v>
+        <v>74.79</v>
       </c>
       <c r="C157">
         <v>109.92</v>
       </c>
       <c r="D157">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E157">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
       <c r="F157">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G157">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H157">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-15 02:37:22</v>
+        <v>2023-10-18 18:23:19</v>
       </c>
       <c r="B158">
-        <v>74</v>
+        <v>74.69</v>
       </c>
       <c r="C158">
-        <v>112.91</v>
+        <v>109.92</v>
       </c>
       <c r="D158">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E158">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="F158">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="G158">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H158">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I158">
         <v>3</v>
@@ -4774,176 +4774,31 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-15 07:47:22</v>
+        <v>2023-10-18 23:32:05</v>
       </c>
       <c r="B159">
-        <v>74</v>
+        <v>72.89</v>
       </c>
       <c r="C159">
-        <v>112.91</v>
+        <v>109.92</v>
       </c>
       <c r="D159">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E159">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="F159">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="G159">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H159">
         <v>69</v>
       </c>
       <c r="I159">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="str">
-        <v>2023-10-15 12:57:24</v>
-      </c>
-      <c r="B160">
-        <v>74</v>
-      </c>
-      <c r="C160">
-        <v>112.91</v>
-      </c>
-      <c r="D160">
-        <v>38</v>
-      </c>
-      <c r="E160">
-        <v>0.28</v>
-      </c>
-      <c r="F160">
-        <v>0.24</v>
-      </c>
-      <c r="G160">
-        <v>15</v>
-      </c>
-      <c r="H160">
-        <v>69</v>
-      </c>
-      <c r="I160">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="str">
-        <v>2023-10-15 18:07:28</v>
-      </c>
-      <c r="B161">
-        <v>74</v>
-      </c>
-      <c r="C161">
-        <v>112.91</v>
-      </c>
-      <c r="D161">
-        <v>38</v>
-      </c>
-      <c r="E161">
-        <v>0.28</v>
-      </c>
-      <c r="F161">
-        <v>0.24</v>
-      </c>
-      <c r="G161">
-        <v>15</v>
-      </c>
-      <c r="H161">
-        <v>61</v>
-      </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="str">
-        <v>2023-10-15 23:17:28</v>
-      </c>
-      <c r="B162">
-        <v>74</v>
-      </c>
-      <c r="C162">
-        <v>112.91</v>
-      </c>
-      <c r="D162">
-        <v>38</v>
-      </c>
-      <c r="E162">
-        <v>0.32</v>
-      </c>
-      <c r="F162">
-        <v>0.25</v>
-      </c>
-      <c r="G162">
-        <v>15</v>
-      </c>
-      <c r="H162">
-        <v>68</v>
-      </c>
-      <c r="I162">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="str">
-        <v>2023-10-16 04:27:28</v>
-      </c>
-      <c r="B163">
-        <v>74</v>
-      </c>
-      <c r="C163">
-        <v>99.97</v>
-      </c>
-      <c r="D163">
-        <v>38</v>
-      </c>
-      <c r="E163">
-        <v>0.32</v>
-      </c>
-      <c r="F163">
-        <v>0.25</v>
-      </c>
-      <c r="G163">
-        <v>16</v>
-      </c>
-      <c r="H163">
-        <v>68</v>
-      </c>
-      <c r="I163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="str">
-        <v>2023-10-16 09:37:28</v>
-      </c>
-      <c r="B164">
-        <v>74</v>
-      </c>
-      <c r="C164">
-        <v>99.97</v>
-      </c>
-      <c r="D164">
-        <v>38</v>
-      </c>
-      <c r="E164">
-        <v>0.32</v>
-      </c>
-      <c r="F164">
-        <v>0.25</v>
-      </c>
-      <c r="G164">
-        <v>16</v>
-      </c>
-      <c r="H164">
-        <v>68</v>
-      </c>
-      <c r="I164">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4955,7 +4810,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I164"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I159"/>
   </ignoredErrors>
 </worksheet>
 </file>